--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gas6-Mertk.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gas6-Mertk.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.9390086944546</v>
+        <v>17.303581</v>
       </c>
       <c r="H2">
-        <v>15.9390086944546</v>
+        <v>51.910743</v>
       </c>
       <c r="I2">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="J2">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.92291579329061</v>
+        <v>5.326087</v>
       </c>
       <c r="N2">
-        <v>4.92291579329061</v>
+        <v>15.978261</v>
       </c>
       <c r="O2">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746397</v>
       </c>
       <c r="P2">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746399</v>
       </c>
       <c r="Q2">
-        <v>78.4663976313269</v>
+        <v>92.16037781754699</v>
       </c>
       <c r="R2">
-        <v>78.4663976313269</v>
+        <v>829.443400357923</v>
       </c>
       <c r="S2">
-        <v>0.00998113313747563</v>
+        <v>0.009565030009022807</v>
       </c>
       <c r="T2">
-        <v>0.00998113313747563</v>
+        <v>0.009565030009022809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.9390086944546</v>
+        <v>17.303581</v>
       </c>
       <c r="H3">
-        <v>15.9390086944546</v>
+        <v>51.910743</v>
       </c>
       <c r="I3">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="J3">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.638494763414856</v>
+        <v>0.6655030000000001</v>
       </c>
       <c r="N3">
-        <v>0.638494763414856</v>
+        <v>1.996509</v>
       </c>
       <c r="O3">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182337</v>
       </c>
       <c r="P3">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182338</v>
       </c>
       <c r="Q3">
-        <v>10.17697358543312</v>
+        <v>11.515585066243</v>
       </c>
       <c r="R3">
-        <v>10.17697358543312</v>
+        <v>103.640265596187</v>
       </c>
       <c r="S3">
-        <v>0.001294537934187345</v>
+        <v>0.001195165637755205</v>
       </c>
       <c r="T3">
-        <v>0.001294537934187345</v>
+        <v>0.001195165637755205</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.9390086944546</v>
+        <v>17.303581</v>
       </c>
       <c r="H4">
-        <v>15.9390086944546</v>
+        <v>51.910743</v>
       </c>
       <c r="I4">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="J4">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.567981116883</v>
+        <v>34.56390266666666</v>
       </c>
       <c r="N4">
-        <v>26.567981116883</v>
+        <v>103.691708</v>
       </c>
       <c r="O4">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649112</v>
       </c>
       <c r="P4">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649113</v>
       </c>
       <c r="Q4">
-        <v>423.4672820161038</v>
+        <v>598.0792894687826</v>
       </c>
       <c r="R4">
-        <v>423.4672820161038</v>
+        <v>5382.713605219044</v>
       </c>
       <c r="S4">
-        <v>0.05386615734580648</v>
+        <v>0.06207273111303103</v>
       </c>
       <c r="T4">
-        <v>0.05386615734580648</v>
+        <v>0.06207273111303103</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.9390086944546</v>
+        <v>17.303581</v>
       </c>
       <c r="H5">
-        <v>15.9390086944546</v>
+        <v>51.910743</v>
       </c>
       <c r="I5">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="J5">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.7830233924275</v>
+        <v>41.90817766666667</v>
       </c>
       <c r="N5">
-        <v>41.7830233924275</v>
+        <v>125.724533</v>
       </c>
       <c r="O5">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713248</v>
       </c>
       <c r="P5">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713249</v>
       </c>
       <c r="Q5">
-        <v>665.9799731325019</v>
+        <v>725.1615468175576</v>
       </c>
       <c r="R5">
-        <v>665.9799731325019</v>
+        <v>6526.453921358019</v>
       </c>
       <c r="S5">
-        <v>0.08471441253056972</v>
+        <v>0.07526219098657722</v>
       </c>
       <c r="T5">
-        <v>0.08471441253056972</v>
+        <v>0.07526219098657723</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.9390086944546</v>
+        <v>17.303581</v>
       </c>
       <c r="H6">
-        <v>15.9390086944546</v>
+        <v>51.910743</v>
       </c>
       <c r="I6">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="J6">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.16849832044145</v>
+        <v>5.275936666666666</v>
       </c>
       <c r="N6">
-        <v>5.16849832044145</v>
+        <v>15.82781</v>
       </c>
       <c r="O6">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819972</v>
       </c>
       <c r="P6">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819973</v>
       </c>
       <c r="Q6">
-        <v>82.38073966679026</v>
+        <v>91.29259746253665</v>
       </c>
       <c r="R6">
-        <v>82.38073966679026</v>
+        <v>821.6333771628299</v>
       </c>
       <c r="S6">
-        <v>0.01047904778859986</v>
+        <v>0.009474965869384113</v>
       </c>
       <c r="T6">
-        <v>0.01047904778859986</v>
+        <v>0.009474965869384115</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.9390086944546</v>
+        <v>17.303581</v>
       </c>
       <c r="H7">
-        <v>15.9390086944546</v>
+        <v>51.910743</v>
       </c>
       <c r="I7">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="J7">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.86773332375359</v>
+        <v>3.115986666666667</v>
       </c>
       <c r="N7">
-        <v>2.86773332375359</v>
+        <v>9.34796</v>
       </c>
       <c r="O7">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991784</v>
       </c>
       <c r="P7">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991785</v>
       </c>
       <c r="Q7">
-        <v>45.70882638068566</v>
+        <v>53.91772768158666</v>
       </c>
       <c r="R7">
-        <v>45.70882638068566</v>
+        <v>485.25954913428</v>
       </c>
       <c r="S7">
-        <v>0.005814283507788288</v>
+        <v>0.005595948014814931</v>
       </c>
       <c r="T7">
-        <v>0.005814283507788288</v>
+        <v>0.005595948014814933</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.3177293369904</v>
+        <v>38.241546</v>
       </c>
       <c r="H8">
-        <v>37.3177293369904</v>
+        <v>114.724638</v>
       </c>
       <c r="I8">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="J8">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.92291579329061</v>
+        <v>5.326087</v>
       </c>
       <c r="N8">
-        <v>4.92291579329061</v>
+        <v>15.978261</v>
       </c>
       <c r="O8">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746397</v>
       </c>
       <c r="P8">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746399</v>
       </c>
       <c r="Q8">
-        <v>183.7120391228144</v>
+        <v>203.677801010502</v>
       </c>
       <c r="R8">
-        <v>183.7120391228144</v>
+        <v>1833.100209094518</v>
       </c>
       <c r="S8">
-        <v>0.02336865686197724</v>
+        <v>0.02113906566978397</v>
       </c>
       <c r="T8">
-        <v>0.02336865686197724</v>
+        <v>0.02113906566978397</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.3177293369904</v>
+        <v>38.241546</v>
       </c>
       <c r="H9">
-        <v>37.3177293369904</v>
+        <v>114.724638</v>
       </c>
       <c r="I9">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="J9">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.638494763414856</v>
+        <v>0.6655030000000001</v>
       </c>
       <c r="N9">
-        <v>0.638494763414856</v>
+        <v>1.996509</v>
       </c>
       <c r="O9">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182337</v>
       </c>
       <c r="P9">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182338</v>
       </c>
       <c r="Q9">
-        <v>23.82717476420132</v>
+        <v>25.449863587638</v>
       </c>
       <c r="R9">
-        <v>23.82717476420132</v>
+        <v>229.048772288742</v>
       </c>
       <c r="S9">
-        <v>0.003030879596751678</v>
+        <v>0.002641359711254856</v>
       </c>
       <c r="T9">
-        <v>0.003030879596751678</v>
+        <v>0.002641359711254856</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>37.3177293369904</v>
+        <v>38.241546</v>
       </c>
       <c r="H10">
-        <v>37.3177293369904</v>
+        <v>114.724638</v>
       </c>
       <c r="I10">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="J10">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.567981116883</v>
+        <v>34.56390266666666</v>
       </c>
       <c r="N10">
-        <v>26.567981116883</v>
+        <v>103.691708</v>
       </c>
       <c r="O10">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649112</v>
       </c>
       <c r="P10">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649113</v>
       </c>
       <c r="Q10">
-        <v>991.4567283501118</v>
+        <v>1321.777073766856</v>
       </c>
       <c r="R10">
-        <v>991.4567283501118</v>
+        <v>11895.9936639017</v>
       </c>
       <c r="S10">
-        <v>0.1261159159135102</v>
+        <v>0.1371830028827332</v>
       </c>
       <c r="T10">
-        <v>0.1261159159135102</v>
+        <v>0.1371830028827332</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>37.3177293369904</v>
+        <v>38.241546</v>
       </c>
       <c r="H11">
-        <v>37.3177293369904</v>
+        <v>114.724638</v>
       </c>
       <c r="I11">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="J11">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.7830233924275</v>
+        <v>41.90817766666667</v>
       </c>
       <c r="N11">
-        <v>41.7830233924275</v>
+        <v>125.724533</v>
       </c>
       <c r="O11">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713248</v>
       </c>
       <c r="P11">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713249</v>
       </c>
       <c r="Q11">
-        <v>1559.247557839748</v>
+        <v>1602.633504016006</v>
       </c>
       <c r="R11">
-        <v>1559.247557839748</v>
+        <v>14423.70153614406</v>
       </c>
       <c r="S11">
-        <v>0.1983404098937361</v>
+        <v>0.166332190930535</v>
       </c>
       <c r="T11">
-        <v>0.1983404098937361</v>
+        <v>0.1663321909305351</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.3177293369904</v>
+        <v>38.241546</v>
       </c>
       <c r="H12">
-        <v>37.3177293369904</v>
+        <v>114.724638</v>
       </c>
       <c r="I12">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="J12">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.16849832044145</v>
+        <v>5.275936666666666</v>
       </c>
       <c r="N12">
-        <v>5.16849832044145</v>
+        <v>15.82781</v>
       </c>
       <c r="O12">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819972</v>
       </c>
       <c r="P12">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819973</v>
       </c>
       <c r="Q12">
-        <v>192.8766214009235</v>
+        <v>201.75997473142</v>
       </c>
       <c r="R12">
-        <v>192.8766214009235</v>
+        <v>1815.83977258278</v>
       </c>
       <c r="S12">
-        <v>0.02453441594648296</v>
+        <v>0.02094002063171101</v>
       </c>
       <c r="T12">
-        <v>0.02453441594648296</v>
+        <v>0.02094002063171101</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.3177293369904</v>
+        <v>38.241546</v>
       </c>
       <c r="H13">
-        <v>37.3177293369904</v>
+        <v>114.724638</v>
       </c>
       <c r="I13">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="J13">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.86773332375359</v>
+        <v>3.115986666666667</v>
       </c>
       <c r="N13">
-        <v>2.86773332375359</v>
+        <v>9.34796</v>
       </c>
       <c r="O13">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991784</v>
       </c>
       <c r="P13">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991785</v>
       </c>
       <c r="Q13">
-        <v>107.0172959865044</v>
+        <v>119.16014744872</v>
       </c>
       <c r="R13">
-        <v>107.0172959865044</v>
+        <v>1072.44132703848</v>
       </c>
       <c r="S13">
-        <v>0.01361288285812024</v>
+        <v>0.01236724949720835</v>
       </c>
       <c r="T13">
-        <v>0.01361288285812024</v>
+        <v>0.01236724949720835</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.1036877369472</v>
+        <v>19.088018</v>
       </c>
       <c r="H14">
-        <v>14.1036877369472</v>
+        <v>57.264054</v>
       </c>
       <c r="I14">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="J14">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.92291579329061</v>
+        <v>5.326087</v>
       </c>
       <c r="N14">
-        <v>4.92291579329061</v>
+        <v>15.978261</v>
       </c>
       <c r="O14">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746397</v>
       </c>
       <c r="P14">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746399</v>
       </c>
       <c r="Q14">
-        <v>69.43126710385647</v>
+        <v>101.664444525566</v>
       </c>
       <c r="R14">
-        <v>69.43126710385647</v>
+        <v>914.9800007300942</v>
       </c>
       <c r="S14">
-        <v>0.008831840657746079</v>
+        <v>0.0105514266083285</v>
       </c>
       <c r="T14">
-        <v>0.008831840657746079</v>
+        <v>0.01055142660832851</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.1036877369472</v>
+        <v>19.088018</v>
       </c>
       <c r="H15">
-        <v>14.1036877369472</v>
+        <v>57.264054</v>
       </c>
       <c r="I15">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="J15">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.638494763414856</v>
+        <v>0.6655030000000001</v>
       </c>
       <c r="N15">
-        <v>0.638494763414856</v>
+        <v>1.996509</v>
       </c>
       <c r="O15">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182337</v>
       </c>
       <c r="P15">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182338</v>
       </c>
       <c r="Q15">
-        <v>9.005130764879107</v>
+        <v>12.703133243054</v>
       </c>
       <c r="R15">
-        <v>9.005130764879107</v>
+        <v>114.328199187486</v>
       </c>
       <c r="S15">
-        <v>0.001145476430649238</v>
+        <v>0.001318417453962439</v>
       </c>
       <c r="T15">
-        <v>0.001145476430649238</v>
+        <v>0.001318417453962439</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.1036877369472</v>
+        <v>19.088018</v>
       </c>
       <c r="H16">
-        <v>14.1036877369472</v>
+        <v>57.264054</v>
       </c>
       <c r="I16">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="J16">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.567981116883</v>
+        <v>34.56390266666666</v>
       </c>
       <c r="N16">
-        <v>26.567981116883</v>
+        <v>103.691708</v>
       </c>
       <c r="O16">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649112</v>
       </c>
       <c r="P16">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649113</v>
       </c>
       <c r="Q16">
-        <v>374.7065094736275</v>
+        <v>659.7563962515814</v>
       </c>
       <c r="R16">
-        <v>374.7065094736275</v>
+        <v>5937.807566264231</v>
       </c>
       <c r="S16">
-        <v>0.04766365822103059</v>
+        <v>0.06847400019653137</v>
       </c>
       <c r="T16">
-        <v>0.04766365822103059</v>
+        <v>0.06847400019653138</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.1036877369472</v>
+        <v>19.088018</v>
       </c>
       <c r="H17">
-        <v>14.1036877369472</v>
+        <v>57.264054</v>
       </c>
       <c r="I17">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="J17">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>41.7830233924275</v>
+        <v>41.90817766666667</v>
       </c>
       <c r="N17">
-        <v>41.7830233924275</v>
+        <v>125.724533</v>
       </c>
       <c r="O17">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713248</v>
       </c>
       <c r="P17">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713249</v>
       </c>
       <c r="Q17">
-        <v>589.2947146323577</v>
+        <v>799.9440496485314</v>
       </c>
       <c r="R17">
-        <v>589.2947146323577</v>
+        <v>7199.496446836783</v>
       </c>
       <c r="S17">
-        <v>0.07495984499749753</v>
+        <v>0.08302362709032447</v>
       </c>
       <c r="T17">
-        <v>0.07495984499749753</v>
+        <v>0.0830236270903245</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.1036877369472</v>
+        <v>19.088018</v>
       </c>
       <c r="H18">
-        <v>14.1036877369472</v>
+        <v>57.264054</v>
       </c>
       <c r="I18">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="J18">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.16849832044145</v>
+        <v>5.275936666666666</v>
       </c>
       <c r="N18">
-        <v>5.16849832044145</v>
+        <v>15.82781</v>
       </c>
       <c r="O18">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819972</v>
       </c>
       <c r="P18">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819973</v>
       </c>
       <c r="Q18">
-        <v>72.89488638044227</v>
+        <v>100.7071740601933</v>
       </c>
       <c r="R18">
-        <v>72.89488638044227</v>
+        <v>906.36456654174</v>
       </c>
       <c r="S18">
-        <v>0.009272422182841196</v>
+        <v>0.01045207457717507</v>
       </c>
       <c r="T18">
-        <v>0.009272422182841196</v>
+        <v>0.01045207457717508</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.1036877369472</v>
+        <v>19.088018</v>
       </c>
       <c r="H19">
-        <v>14.1036877369472</v>
+        <v>57.264054</v>
       </c>
       <c r="I19">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="J19">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.86773332375359</v>
+        <v>3.115986666666667</v>
       </c>
       <c r="N19">
-        <v>2.86773332375359</v>
+        <v>9.34796</v>
       </c>
       <c r="O19">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991784</v>
       </c>
       <c r="P19">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991785</v>
       </c>
       <c r="Q19">
-        <v>40.44561531105834</v>
+        <v>59.47800958109334</v>
       </c>
       <c r="R19">
-        <v>40.44561531105834</v>
+        <v>535.30208622984</v>
       </c>
       <c r="S19">
-        <v>0.005144789150937469</v>
+        <v>0.006173031838545542</v>
       </c>
       <c r="T19">
-        <v>0.005144789150937469</v>
+        <v>0.006173031838545543</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.877207587949</v>
+        <v>21.82515533333334</v>
       </c>
       <c r="H20">
-        <v>19.877207587949</v>
+        <v>65.47546600000001</v>
       </c>
       <c r="I20">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="J20">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.92291579329061</v>
+        <v>5.326087</v>
       </c>
       <c r="N20">
-        <v>4.92291579329061</v>
+        <v>15.978261</v>
       </c>
       <c r="O20">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746397</v>
       </c>
       <c r="P20">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746399</v>
       </c>
       <c r="Q20">
-        <v>97.85381916123008</v>
+        <v>116.2426760938474</v>
       </c>
       <c r="R20">
-        <v>97.85381916123008</v>
+        <v>1046.184084844626</v>
       </c>
       <c r="S20">
-        <v>0.01244726439013644</v>
+        <v>0.01206445450308335</v>
       </c>
       <c r="T20">
-        <v>0.01244726439013644</v>
+        <v>0.01206445450308336</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.877207587949</v>
+        <v>21.82515533333334</v>
       </c>
       <c r="H21">
-        <v>19.877207587949</v>
+        <v>65.47546600000001</v>
       </c>
       <c r="I21">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="J21">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.638494763414856</v>
+        <v>0.6655030000000001</v>
       </c>
       <c r="N21">
-        <v>0.638494763414856</v>
+        <v>1.996509</v>
       </c>
       <c r="O21">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182337</v>
       </c>
       <c r="P21">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182338</v>
       </c>
       <c r="Q21">
-        <v>12.69149295621548</v>
+        <v>14.52470634979934</v>
       </c>
       <c r="R21">
-        <v>12.69149295621548</v>
+        <v>130.722357148194</v>
       </c>
       <c r="S21">
-        <v>0.0016143914431309</v>
+        <v>0.001507472684010885</v>
       </c>
       <c r="T21">
-        <v>0.0016143914431309</v>
+        <v>0.001507472684010885</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.877207587949</v>
+        <v>21.82515533333334</v>
       </c>
       <c r="H22">
-        <v>19.877207587949</v>
+        <v>65.47546600000001</v>
       </c>
       <c r="I22">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="J22">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>26.567981116883</v>
+        <v>34.56390266666666</v>
       </c>
       <c r="N22">
-        <v>26.567981116883</v>
+        <v>103.691708</v>
       </c>
       <c r="O22">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649112</v>
       </c>
       <c r="P22">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649113</v>
       </c>
       <c r="Q22">
-        <v>528.0972758529925</v>
+        <v>754.3625446262143</v>
       </c>
       <c r="R22">
-        <v>528.0972758529925</v>
+        <v>6789.262901635929</v>
       </c>
       <c r="S22">
-        <v>0.06717536906170542</v>
+        <v>0.07829286888685849</v>
       </c>
       <c r="T22">
-        <v>0.06717536906170542</v>
+        <v>0.07829286888685849</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.877207587949</v>
+        <v>21.82515533333334</v>
       </c>
       <c r="H23">
-        <v>19.877207587949</v>
+        <v>65.47546600000001</v>
       </c>
       <c r="I23">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="J23">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>41.7830233924275</v>
+        <v>41.90817766666667</v>
       </c>
       <c r="N23">
-        <v>41.7830233924275</v>
+        <v>125.724533</v>
       </c>
       <c r="O23">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713248</v>
       </c>
       <c r="P23">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713249</v>
       </c>
       <c r="Q23">
-        <v>830.5298296234105</v>
+        <v>914.6524873119311</v>
       </c>
       <c r="R23">
-        <v>830.5298296234105</v>
+        <v>8231.872385807381</v>
       </c>
       <c r="S23">
-        <v>0.1056455891229377</v>
+        <v>0.09492884790778558</v>
       </c>
       <c r="T23">
-        <v>0.1056455891229377</v>
+        <v>0.09492884790778559</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.877207587949</v>
+        <v>21.82515533333334</v>
       </c>
       <c r="H24">
-        <v>19.877207587949</v>
+        <v>65.47546600000001</v>
       </c>
       <c r="I24">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="J24">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.16849832044145</v>
+        <v>5.275936666666666</v>
       </c>
       <c r="N24">
-        <v>5.16849832044145</v>
+        <v>15.82781</v>
       </c>
       <c r="O24">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819972</v>
       </c>
       <c r="P24">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819973</v>
       </c>
       <c r="Q24">
-        <v>102.7353140333804</v>
+        <v>115.1481372788289</v>
       </c>
       <c r="R24">
-        <v>102.7353140333804</v>
+        <v>1036.33323550946</v>
       </c>
       <c r="S24">
-        <v>0.01306820343792809</v>
+        <v>0.01195085583020879</v>
       </c>
       <c r="T24">
-        <v>0.01306820343792809</v>
+        <v>0.01195085583020879</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>19.877207587949</v>
+        <v>21.82515533333334</v>
       </c>
       <c r="H25">
-        <v>19.877207587949</v>
+        <v>65.47546600000001</v>
       </c>
       <c r="I25">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="J25">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.86773332375359</v>
+        <v>3.115986666666667</v>
       </c>
       <c r="N25">
-        <v>2.86773332375359</v>
+        <v>9.34796</v>
       </c>
       <c r="O25">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991784</v>
       </c>
       <c r="P25">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991785</v>
       </c>
       <c r="Q25">
-        <v>57.00253058312906</v>
+        <v>68.00689301659557</v>
       </c>
       <c r="R25">
-        <v>57.00253058312906</v>
+        <v>612.0620371493601</v>
       </c>
       <c r="S25">
-        <v>0.007250872527581033</v>
+        <v>0.007058217293899698</v>
       </c>
       <c r="T25">
-        <v>0.007250872527581033</v>
+        <v>0.007058217293899699</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.13336968115137</v>
+        <v>6.432258</v>
       </c>
       <c r="H26">
-        <v>6.13336968115137</v>
+        <v>19.296774</v>
       </c>
       <c r="I26">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="J26">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.92291579329061</v>
+        <v>5.326087</v>
       </c>
       <c r="N26">
-        <v>4.92291579329061</v>
+        <v>15.978261</v>
       </c>
       <c r="O26">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746397</v>
       </c>
       <c r="P26">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746399</v>
       </c>
       <c r="Q26">
-        <v>30.19406246942987</v>
+        <v>34.258765714446</v>
       </c>
       <c r="R26">
-        <v>30.19406246942987</v>
+        <v>308.328891430014</v>
       </c>
       <c r="S26">
-        <v>0.003840764538275637</v>
+        <v>0.00355560740841893</v>
       </c>
       <c r="T26">
-        <v>0.003840764538275637</v>
+        <v>0.00355560740841893</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.13336968115137</v>
+        <v>6.432258</v>
       </c>
       <c r="H27">
-        <v>6.13336968115137</v>
+        <v>19.296774</v>
       </c>
       <c r="I27">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="J27">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.638494763414856</v>
+        <v>0.6655030000000001</v>
       </c>
       <c r="N27">
-        <v>0.638494763414856</v>
+        <v>1.996509</v>
       </c>
       <c r="O27">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182337</v>
       </c>
       <c r="P27">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182338</v>
       </c>
       <c r="Q27">
-        <v>3.916124423502595</v>
+        <v>4.280686995774</v>
       </c>
       <c r="R27">
-        <v>3.916124423502595</v>
+        <v>38.526182961966</v>
       </c>
       <c r="S27">
-        <v>0.000498141375593037</v>
+        <v>0.0004442787729763001</v>
       </c>
       <c r="T27">
-        <v>0.000498141375593037</v>
+        <v>0.0004442787729763001</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.13336968115137</v>
+        <v>6.432258</v>
       </c>
       <c r="H28">
-        <v>6.13336968115137</v>
+        <v>19.296774</v>
       </c>
       <c r="I28">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="J28">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>26.567981116883</v>
+        <v>34.56390266666666</v>
       </c>
       <c r="N28">
-        <v>26.567981116883</v>
+        <v>103.691708</v>
       </c>
       <c r="O28">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649112</v>
       </c>
       <c r="P28">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649113</v>
       </c>
       <c r="Q28">
-        <v>162.9512498716923</v>
+        <v>222.323939438888</v>
       </c>
       <c r="R28">
-        <v>162.9512498716923</v>
+        <v>2000.915454949992</v>
       </c>
       <c r="S28">
-        <v>0.02072782960585515</v>
+        <v>0.02307428856972686</v>
       </c>
       <c r="T28">
-        <v>0.02072782960585515</v>
+        <v>0.02307428856972686</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.13336968115137</v>
+        <v>6.432258</v>
       </c>
       <c r="H29">
-        <v>6.13336968115137</v>
+        <v>19.296774</v>
       </c>
       <c r="I29">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="J29">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>41.7830233924275</v>
+        <v>41.90817766666667</v>
       </c>
       <c r="N29">
-        <v>41.7830233924275</v>
+        <v>125.724533</v>
       </c>
       <c r="O29">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713248</v>
       </c>
       <c r="P29">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713249</v>
       </c>
       <c r="Q29">
-        <v>256.2707288619533</v>
+        <v>269.564211061838</v>
       </c>
       <c r="R29">
-        <v>256.2707288619533</v>
+        <v>2426.077899556542</v>
       </c>
       <c r="S29">
-        <v>0.03259831394359655</v>
+        <v>0.02797720483817421</v>
       </c>
       <c r="T29">
-        <v>0.03259831394359655</v>
+        <v>0.02797720483817421</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.13336968115137</v>
+        <v>6.432258</v>
       </c>
       <c r="H30">
-        <v>6.13336968115137</v>
+        <v>19.296774</v>
       </c>
       <c r="I30">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="J30">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.16849832044145</v>
+        <v>5.275936666666666</v>
       </c>
       <c r="N30">
-        <v>5.16849832044145</v>
+        <v>15.82781</v>
       </c>
       <c r="O30">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819972</v>
       </c>
       <c r="P30">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819973</v>
       </c>
       <c r="Q30">
-        <v>31.70031089567737</v>
+        <v>33.93618583166</v>
       </c>
       <c r="R30">
-        <v>31.70031089567737</v>
+        <v>305.42567248494</v>
       </c>
       <c r="S30">
-        <v>0.004032363318572991</v>
+        <v>0.003522127877060415</v>
       </c>
       <c r="T30">
-        <v>0.004032363318572991</v>
+        <v>0.003522127877060415</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.13336968115137</v>
+        <v>6.432258</v>
       </c>
       <c r="H31">
-        <v>6.13336968115137</v>
+        <v>19.296774</v>
       </c>
       <c r="I31">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="J31">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.86773332375359</v>
+        <v>3.115986666666667</v>
       </c>
       <c r="N31">
-        <v>2.86773332375359</v>
+        <v>9.34796</v>
       </c>
       <c r="O31">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991784</v>
       </c>
       <c r="P31">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991785</v>
       </c>
       <c r="Q31">
-        <v>17.58886862153771</v>
+        <v>20.04283016456</v>
       </c>
       <c r="R31">
-        <v>17.58886862153771</v>
+        <v>180.38547148104</v>
       </c>
       <c r="S31">
-        <v>0.002237350569781302</v>
+        <v>0.002080181055347877</v>
       </c>
       <c r="T31">
-        <v>0.002237350569781302</v>
+        <v>0.002080181055347877</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.56068356959828</v>
+        <v>3.158358999999999</v>
       </c>
       <c r="H32">
-        <v>2.56068356959828</v>
+        <v>9.475076999999999</v>
       </c>
       <c r="I32">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="J32">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.92291579329061</v>
+        <v>5.326087</v>
       </c>
       <c r="N32">
-        <v>4.92291579329061</v>
+        <v>15.978261</v>
       </c>
       <c r="O32">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746397</v>
       </c>
       <c r="P32">
-        <v>0.0600731798622515</v>
+        <v>0.05862145394746399</v>
       </c>
       <c r="Q32">
-        <v>12.60602958639515</v>
+        <v>16.821694811233</v>
       </c>
       <c r="R32">
-        <v>12.60602958639515</v>
+        <v>151.395253301097</v>
       </c>
       <c r="S32">
-        <v>0.001603520276640475</v>
+        <v>0.0017458697488264</v>
       </c>
       <c r="T32">
-        <v>0.001603520276640475</v>
+        <v>0.0017458697488264</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.56068356959828</v>
+        <v>3.158358999999999</v>
       </c>
       <c r="H33">
-        <v>2.56068356959828</v>
+        <v>9.475076999999999</v>
       </c>
       <c r="I33">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="J33">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.638494763414856</v>
+        <v>0.6655030000000001</v>
       </c>
       <c r="N33">
-        <v>0.638494763414856</v>
+        <v>1.996509</v>
       </c>
       <c r="O33">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182337</v>
       </c>
       <c r="P33">
-        <v>0.00779140094494444</v>
+        <v>0.007324843448182338</v>
       </c>
       <c r="Q33">
-        <v>1.634983049950963</v>
+        <v>2.101897389577</v>
       </c>
       <c r="R33">
-        <v>1.634983049950963</v>
+        <v>18.917076506193</v>
       </c>
       <c r="S33">
-        <v>0.0002079741646322418</v>
+        <v>0.0002181491882226512</v>
       </c>
       <c r="T33">
-        <v>0.0002079741646322418</v>
+        <v>0.0002181491882226512</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.56068356959828</v>
+        <v>3.158358999999999</v>
       </c>
       <c r="H34">
-        <v>2.56068356959828</v>
+        <v>9.475076999999999</v>
       </c>
       <c r="I34">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="J34">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>26.567981116883</v>
+        <v>34.56390266666666</v>
       </c>
       <c r="N34">
-        <v>26.567981116883</v>
+        <v>103.691708</v>
       </c>
       <c r="O34">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649112</v>
       </c>
       <c r="P34">
-        <v>0.324202804847204</v>
+        <v>0.3804267989649113</v>
       </c>
       <c r="Q34">
-        <v>68.03219272339966</v>
+        <v>109.1652130623906</v>
       </c>
       <c r="R34">
-        <v>68.03219272339966</v>
+        <v>982.4869175615158</v>
       </c>
       <c r="S34">
-        <v>0.008653874699296172</v>
+        <v>0.01132990731603022</v>
       </c>
       <c r="T34">
-        <v>0.008653874699296172</v>
+        <v>0.01132990731603022</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.56068356959828</v>
+        <v>3.158358999999999</v>
       </c>
       <c r="H35">
-        <v>2.56068356959828</v>
+        <v>9.475076999999999</v>
       </c>
       <c r="I35">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="J35">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>41.7830233924275</v>
+        <v>41.90817766666667</v>
       </c>
       <c r="N35">
-        <v>41.7830233924275</v>
+        <v>125.724533</v>
       </c>
       <c r="O35">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713248</v>
       </c>
       <c r="P35">
-        <v>0.5098683757424544</v>
+        <v>0.4612613926713249</v>
       </c>
       <c r="Q35">
-        <v>106.9931014891297</v>
+        <v>132.3610701071156</v>
       </c>
       <c r="R35">
-        <v>106.9931014891297</v>
+        <v>1191.249630964041</v>
       </c>
       <c r="S35">
-        <v>0.01360980525411674</v>
+        <v>0.0137373309179282</v>
       </c>
       <c r="T35">
-        <v>0.01360980525411674</v>
+        <v>0.01373733091792821</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.56068356959828</v>
+        <v>3.158358999999999</v>
       </c>
       <c r="H36">
-        <v>2.56068356959828</v>
+        <v>9.475076999999999</v>
       </c>
       <c r="I36">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="J36">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.16849832044145</v>
+        <v>5.275936666666666</v>
       </c>
       <c r="N36">
-        <v>5.16849832044145</v>
+        <v>15.82781</v>
       </c>
       <c r="O36">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819972</v>
       </c>
       <c r="P36">
-        <v>0.06306996549581145</v>
+        <v>0.05806947545819973</v>
       </c>
       <c r="Q36">
-        <v>13.23488872865073</v>
+        <v>16.66330205459666</v>
       </c>
       <c r="R36">
-        <v>13.23488872865073</v>
+        <v>149.96971849137</v>
       </c>
       <c r="S36">
-        <v>0.001683512821386352</v>
+        <v>0.001729430672660309</v>
       </c>
       <c r="T36">
-        <v>0.001683512821386352</v>
+        <v>0.001729430672660309</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.56068356959828</v>
+        <v>3.158358999999999</v>
       </c>
       <c r="H37">
-        <v>2.56068356959828</v>
+        <v>9.475076999999999</v>
       </c>
       <c r="I37">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="J37">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.86773332375359</v>
+        <v>3.115986666666667</v>
       </c>
       <c r="N37">
-        <v>2.86773332375359</v>
+        <v>9.34796</v>
       </c>
       <c r="O37">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991784</v>
       </c>
       <c r="P37">
-        <v>0.03499427310733447</v>
+        <v>0.03429603550991785</v>
       </c>
       <c r="Q37">
-        <v>7.343357604125283</v>
+        <v>9.841404532546665</v>
       </c>
       <c r="R37">
-        <v>7.343357604125283</v>
+        <v>88.57264079292</v>
       </c>
       <c r="S37">
-        <v>0.0009340944931261411</v>
+        <v>0.001021407810101439</v>
       </c>
       <c r="T37">
-        <v>0.0009340944931261411</v>
+        <v>0.001021407810101439</v>
       </c>
     </row>
   </sheetData>
